--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2477,28 +2477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1137.559106125243</v>
+        <v>1210.647458461292</v>
       </c>
       <c r="AB2" t="n">
-        <v>1556.458554566401</v>
+        <v>1656.461262663119</v>
       </c>
       <c r="AC2" t="n">
-        <v>1407.912334621884</v>
+        <v>1498.370924612534</v>
       </c>
       <c r="AD2" t="n">
-        <v>1137559.106125243</v>
+        <v>1210647.458461292</v>
       </c>
       <c r="AE2" t="n">
-        <v>1556458.554566401</v>
+        <v>1656461.262663119</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.247183476874912e-06</v>
+        <v>2.307615962848806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.18424479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1407912.334621884</v>
+        <v>1498370.924612534</v>
       </c>
     </row>
     <row r="3">
@@ -2583,28 +2583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.0871190815894</v>
+        <v>585.8695215363022</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.8662909388435</v>
+        <v>801.6125261050881</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.7316835229568</v>
+        <v>725.1077516838644</v>
       </c>
       <c r="AD3" t="n">
-        <v>537087.1190815894</v>
+        <v>585869.5215363022</v>
       </c>
       <c r="AE3" t="n">
-        <v>734866.2909388435</v>
+        <v>801612.5261050882</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.959472947235647e-06</v>
+        <v>3.625537970677339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.755533854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>664731.6835229568</v>
+        <v>725107.7516838644</v>
       </c>
     </row>
     <row r="4">
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.5790498373453</v>
+        <v>474.2761114374864</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.296031210047</v>
+        <v>648.9254992540939</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.7225152489719</v>
+        <v>586.9929603779408</v>
       </c>
       <c r="AD4" t="n">
-        <v>425579.0498373453</v>
+        <v>474276.1114374864</v>
       </c>
       <c r="AE4" t="n">
-        <v>582296.031210047</v>
+        <v>648925.4992540939</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.232475229492141e-06</v>
+        <v>4.130663668788576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.806640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>526722.515248972</v>
+        <v>586992.9603779408</v>
       </c>
     </row>
     <row r="5">
@@ -2795,28 +2795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>374.7972464960574</v>
+        <v>411.2987969910714</v>
       </c>
       <c r="AB5" t="n">
-        <v>512.8141275434483</v>
+        <v>562.7571592654824</v>
       </c>
       <c r="AC5" t="n">
-        <v>463.8718669498493</v>
+        <v>509.0484058198178</v>
       </c>
       <c r="AD5" t="n">
-        <v>374797.2464960574</v>
+        <v>411298.7969910714</v>
       </c>
       <c r="AE5" t="n">
-        <v>512814.1275434484</v>
+        <v>562757.1592654824</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.386155720803423e-06</v>
+        <v>4.415012813484573e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.368815104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>463871.8669498493</v>
+        <v>509048.4058198178</v>
       </c>
     </row>
     <row r="6">
@@ -2901,28 +2901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>353.3011786114666</v>
+        <v>389.8027291064807</v>
       </c>
       <c r="AB6" t="n">
-        <v>483.4022591241667</v>
+        <v>533.3452908462009</v>
       </c>
       <c r="AC6" t="n">
-        <v>437.2670259726873</v>
+        <v>482.4435648426558</v>
       </c>
       <c r="AD6" t="n">
-        <v>353301.1786114667</v>
+        <v>389802.7291064807</v>
       </c>
       <c r="AE6" t="n">
-        <v>483402.2591241667</v>
+        <v>533345.2908462009</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.444882955939994e-06</v>
+        <v>4.523673574124781e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.2158203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>437267.0259726873</v>
+        <v>482443.5648426558</v>
       </c>
     </row>
     <row r="7">
@@ -3007,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>352.5187861685679</v>
+        <v>389.0203366635819</v>
       </c>
       <c r="AB7" t="n">
-        <v>482.3317552670741</v>
+        <v>532.2747869891084</v>
       </c>
       <c r="AC7" t="n">
-        <v>436.2986895012541</v>
+        <v>481.4752283712226</v>
       </c>
       <c r="AD7" t="n">
-        <v>352518.786168568</v>
+        <v>389020.3366635819</v>
       </c>
       <c r="AE7" t="n">
-        <v>482331.7552670742</v>
+        <v>532274.7869891084</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.450578283989805e-06</v>
+        <v>4.534211422135994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.201171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>436298.6895012541</v>
+        <v>481475.2283712226</v>
       </c>
     </row>
   </sheetData>
@@ -3304,28 +3304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>786.160548182665</v>
+        <v>844.8938575002304</v>
       </c>
       <c r="AB2" t="n">
-        <v>1075.659544979108</v>
+        <v>1156.021049918136</v>
       </c>
       <c r="AC2" t="n">
-        <v>973.0001077039549</v>
+        <v>1045.692023399682</v>
       </c>
       <c r="AD2" t="n">
-        <v>786160.548182665</v>
+        <v>844893.8575002304</v>
       </c>
       <c r="AE2" t="n">
-        <v>1075659.544979108</v>
+        <v>1156021.049918136</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.536487789212928e-06</v>
+        <v>2.92878285608581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.23111979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>973000.1077039549</v>
+        <v>1045692.023399682</v>
       </c>
     </row>
     <row r="3">
@@ -3410,28 +3410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.1238085259615</v>
+        <v>465.4150344326643</v>
       </c>
       <c r="AB3" t="n">
-        <v>588.5143705484143</v>
+        <v>636.8013827729687</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.3473850083795</v>
+        <v>576.02595255747</v>
       </c>
       <c r="AD3" t="n">
-        <v>430123.8085259615</v>
+        <v>465415.0344326643</v>
       </c>
       <c r="AE3" t="n">
-        <v>588514.3705484143</v>
+        <v>636801.3827729687</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20186774771732e-06</v>
+        <v>4.197099746680175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.140299479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>532347.3850083796</v>
+        <v>576025.95255747</v>
       </c>
     </row>
     <row r="4">
@@ -3516,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.4930240040651</v>
+        <v>377.6989090561962</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.614065168191</v>
+        <v>516.7843102705477</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.8901964925093</v>
+        <v>467.4631410096608</v>
       </c>
       <c r="AD4" t="n">
-        <v>342493.0240040651</v>
+        <v>377698.9090561962</v>
       </c>
       <c r="AE4" t="n">
-        <v>468614.065168191</v>
+        <v>516784.3102705478</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455212446680452e-06</v>
+        <v>4.680013842198975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.402994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>423890.1964925093</v>
+        <v>467463.1410096608</v>
       </c>
     </row>
     <row r="5">
@@ -3622,28 +3622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.8368870613727</v>
+        <v>361.0427721135039</v>
       </c>
       <c r="AB5" t="n">
-        <v>445.8244037862984</v>
+        <v>493.994648888655</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.2755484074138</v>
+        <v>446.8484929245652</v>
       </c>
       <c r="AD5" t="n">
-        <v>325836.8870613727</v>
+        <v>361042.7721135039</v>
       </c>
       <c r="AE5" t="n">
-        <v>445824.4037862984</v>
+        <v>493994.648888655</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.51268103069992e-06</v>
+        <v>4.789557832604499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.256510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>403275.5484074138</v>
+        <v>446848.4929245652</v>
       </c>
     </row>
     <row r="6">
@@ -3728,28 +3728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>327.257994751759</v>
+        <v>362.4638798038901</v>
       </c>
       <c r="AB6" t="n">
-        <v>447.7688260231312</v>
+        <v>495.9390711254881</v>
       </c>
       <c r="AC6" t="n">
-        <v>405.0343977149772</v>
+        <v>448.6073422321286</v>
       </c>
       <c r="AD6" t="n">
-        <v>327257.994751759</v>
+        <v>362463.8798038901</v>
       </c>
       <c r="AE6" t="n">
-        <v>447768.8260231311</v>
+        <v>495939.071125488</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.511811758000466e-06</v>
+        <v>4.787900864682398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.258138020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>405034.3977149772</v>
+        <v>448607.3422321286</v>
       </c>
     </row>
   </sheetData>
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.0263349225429</v>
+        <v>333.4167519046666</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.2457559025278</v>
+        <v>456.195509264929</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.8061609532508</v>
+        <v>412.656850135102</v>
       </c>
       <c r="AD2" t="n">
-        <v>302026.3349225429</v>
+        <v>333416.7519046666</v>
       </c>
       <c r="AE2" t="n">
-        <v>413245.7559025278</v>
+        <v>456195.509264929</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482506494930921e-06</v>
+        <v>5.287089154968797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.0654296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>373806.1609532508</v>
+        <v>412656.850135102</v>
       </c>
     </row>
     <row r="3">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.1135325718039</v>
+        <v>315.8819616819959</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.0542283003167</v>
+        <v>432.2036357019228</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.2595791432491</v>
+        <v>390.9547273121431</v>
       </c>
       <c r="AD3" t="n">
-        <v>274113.532571804</v>
+        <v>315881.9616819959</v>
       </c>
       <c r="AE3" t="n">
-        <v>375054.2283003167</v>
+        <v>432203.6357019228</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.576918046965283e-06</v>
+        <v>5.488161053021792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.806640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>339259.5791432491</v>
+        <v>390954.7273121431</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.1055997590898</v>
+        <v>480.7938982809482</v>
       </c>
       <c r="AB2" t="n">
-        <v>583.0164800427207</v>
+        <v>657.84342275778</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.3742054562116</v>
+        <v>595.0597697788194</v>
       </c>
       <c r="AD2" t="n">
-        <v>426105.5997590898</v>
+        <v>480793.8982809482</v>
       </c>
       <c r="AE2" t="n">
-        <v>583016.4800427207</v>
+        <v>657843.4227577799</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.100467988499508e-06</v>
+        <v>4.264676214943177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.989908854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>527374.2054562116</v>
+        <v>595059.7697788194</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.0453862597453</v>
+        <v>323.046115252918</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.8528933799371</v>
+        <v>442.0059466778076</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.9778102222893</v>
+        <v>399.8215194861193</v>
       </c>
       <c r="AD3" t="n">
-        <v>290045.3862597453</v>
+        <v>323046.115252918</v>
       </c>
       <c r="AE3" t="n">
-        <v>396852.8933799371</v>
+        <v>442005.9466778076</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.57887813314106e-06</v>
+        <v>5.236014210100075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.507161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>358977.8102222893</v>
+        <v>399821.5194861193</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.5293126343622</v>
+        <v>323.3594494269427</v>
       </c>
       <c r="AB4" t="n">
-        <v>397.5150227950128</v>
+        <v>442.4346643180363</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.5767469352946</v>
+        <v>400.2093209164736</v>
       </c>
       <c r="AD4" t="n">
-        <v>290529.3126343622</v>
+        <v>323359.4494269427</v>
       </c>
       <c r="AE4" t="n">
-        <v>397515.0227950129</v>
+        <v>442434.6643180363</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.58289925289128e-06</v>
+        <v>5.244178473421438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>359576.7469352947</v>
+        <v>400209.3209164736</v>
       </c>
     </row>
   </sheetData>
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.8331815216642</v>
+        <v>302.9727359211957</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.3023955084137</v>
+        <v>414.5406635011499</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.6749388142927</v>
+        <v>374.9774843880748</v>
       </c>
       <c r="AD2" t="n">
-        <v>272833.1815216643</v>
+        <v>302972.7359211958</v>
       </c>
       <c r="AE2" t="n">
-        <v>373302.3955084137</v>
+        <v>414540.6635011499</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522212855547416e-06</v>
+        <v>5.616475380496631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.223307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>337674.9388142927</v>
+        <v>374977.4843880748</v>
       </c>
     </row>
     <row r="3">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.9577023641972</v>
+        <v>305.0972567637287</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.2092586524119</v>
+        <v>417.4475266451481</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.3043750196356</v>
+        <v>377.6069205934178</v>
       </c>
       <c r="AD3" t="n">
-        <v>274957.7023641972</v>
+        <v>305097.2567637287</v>
       </c>
       <c r="AE3" t="n">
-        <v>376209.2586524119</v>
+        <v>417447.5266451481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.522324789726423e-06</v>
+        <v>5.616724636049843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.223307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>340304.3750196357</v>
+        <v>377606.9205934178</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>856.1584776965927</v>
+        <v>927.3365188075722</v>
       </c>
       <c r="AB2" t="n">
-        <v>1171.433800230768</v>
+        <v>1268.822736232363</v>
       </c>
       <c r="AC2" t="n">
-        <v>1059.633802454408</v>
+        <v>1147.728075090241</v>
       </c>
       <c r="AD2" t="n">
-        <v>856158.4776965927</v>
+        <v>927336.5188075722</v>
       </c>
       <c r="AE2" t="n">
-        <v>1171433.800230768</v>
+        <v>1268822.736232363</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.460181624354485e-06</v>
+        <v>2.760858364920126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.6689453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1059633.802454408</v>
+        <v>1147728.07509024</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.6327499048856</v>
+        <v>503.9710790146607</v>
       </c>
       <c r="AB3" t="n">
-        <v>624.7850736350133</v>
+        <v>689.5554639426947</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.1564630986451</v>
+        <v>623.7452582611751</v>
       </c>
       <c r="AD3" t="n">
-        <v>456632.7499048856</v>
+        <v>503971.0790146607</v>
       </c>
       <c r="AE3" t="n">
-        <v>624785.0736350133</v>
+        <v>689555.4639426947</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.136143776513867e-06</v>
+        <v>4.038943043587181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.293294270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>565156.4630986451</v>
+        <v>623745.2582611751</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.4208583313056</v>
+        <v>398.9672979680606</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.2484513656108</v>
+        <v>545.8846582748578</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.7917570598608</v>
+        <v>493.7861926430344</v>
       </c>
       <c r="AD4" t="n">
-        <v>363420.8583313056</v>
+        <v>398967.2979680606</v>
       </c>
       <c r="AE4" t="n">
-        <v>497248.4513656108</v>
+        <v>545884.6582748578</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.396975957855458e-06</v>
+        <v>4.532115055675503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4990234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>449791.7570598608</v>
+        <v>493786.1926430344</v>
       </c>
     </row>
     <row r="5">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.5530256231925</v>
+        <v>369.0994652599475</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.3819649785883</v>
+        <v>505.0181718878354</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.8255107771419</v>
+        <v>456.8199463603154</v>
       </c>
       <c r="AD5" t="n">
-        <v>333553.0256231925</v>
+        <v>369099.4652599475</v>
       </c>
       <c r="AE5" t="n">
-        <v>456381.9649785883</v>
+        <v>505018.1718878354</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.492694189540445e-06</v>
+        <v>4.713095610570299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>412825.5107771418</v>
+        <v>456819.9463603154</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>334.2921940992034</v>
+        <v>369.8386337359584</v>
       </c>
       <c r="AB6" t="n">
-        <v>457.3933278972781</v>
+        <v>506.029534806525</v>
       </c>
       <c r="AC6" t="n">
-        <v>413.7403506383287</v>
+        <v>457.7347862215023</v>
       </c>
       <c r="AD6" t="n">
-        <v>334292.1940992034</v>
+        <v>369838.6337359584</v>
       </c>
       <c r="AE6" t="n">
-        <v>457393.3278972781</v>
+        <v>506029.534806525</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.494417117710775e-06</v>
+        <v>4.716353260558405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.2451171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>413740.3506383286</v>
+        <v>457734.7862215023</v>
       </c>
     </row>
   </sheetData>
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.4124942944358</v>
+        <v>308.6108502336309</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.62206033405</v>
+        <v>422.2549802394721</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.4412882600786</v>
+        <v>381.9555575640031</v>
       </c>
       <c r="AD2" t="n">
-        <v>269412.4942944358</v>
+        <v>308610.8502336309</v>
       </c>
       <c r="AE2" t="n">
-        <v>368622.06033405</v>
+        <v>422254.9802394721</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.455180208003017e-06</v>
+        <v>5.628664505667993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.594401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>333441.2882600786</v>
+        <v>381955.5575640031</v>
       </c>
     </row>
   </sheetData>
@@ -6358,28 +6358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>594.2392673143108</v>
+        <v>639.8205194894898</v>
       </c>
       <c r="AB2" t="n">
-        <v>813.0643815256832</v>
+        <v>875.4306616546869</v>
       </c>
       <c r="AC2" t="n">
-        <v>735.4666580958979</v>
+        <v>791.8807879810131</v>
       </c>
       <c r="AD2" t="n">
-        <v>594239.2673143109</v>
+        <v>639820.5194894898</v>
       </c>
       <c r="AE2" t="n">
-        <v>813064.3815256832</v>
+        <v>875430.6616546869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.793131241710141e-06</v>
+        <v>3.514512452796137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.033203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>735466.6580958979</v>
+        <v>791880.7879810131</v>
       </c>
     </row>
     <row r="3">
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.4800163193649</v>
+        <v>389.9758381314214</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.3327557138986</v>
+        <v>533.582146251156</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.3494190282406</v>
+        <v>482.6578151001905</v>
       </c>
       <c r="AD3" t="n">
-        <v>344480.0163193649</v>
+        <v>389975.8381314214</v>
       </c>
       <c r="AE3" t="n">
-        <v>471332.7557138986</v>
+        <v>533582.146251156</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412900450510338e-06</v>
+        <v>4.729251536874851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.712239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>426349.4190282406</v>
+        <v>482657.8151001905</v>
       </c>
     </row>
     <row r="4">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.1594721282458</v>
+        <v>342.2600927821962</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.6373848022878</v>
+        <v>468.2953583942297</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.3969045685429</v>
+        <v>423.6019066457472</v>
       </c>
       <c r="AD4" t="n">
-        <v>308159.4721282458</v>
+        <v>342260.0927821962</v>
       </c>
       <c r="AE4" t="n">
-        <v>421637.3848022878</v>
+        <v>468295.3583942297</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.549134240948275e-06</v>
+        <v>4.996267883391189e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>381396.904568543</v>
+        <v>423601.9066457472</v>
       </c>
     </row>
     <row r="5">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.0580013984156</v>
+        <v>344.158622052366</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.2350363069343</v>
+        <v>470.8930098988762</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.7466398594128</v>
+        <v>425.951641936617</v>
       </c>
       <c r="AD5" t="n">
-        <v>310058.0013984157</v>
+        <v>344158.622052366</v>
       </c>
       <c r="AE5" t="n">
-        <v>424235.0363069343</v>
+        <v>470893.0098988762</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.54774105390216e-06</v>
+        <v>4.993537256034557e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.357421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>383746.6398594128</v>
+        <v>425951.641936617</v>
       </c>
     </row>
   </sheetData>
@@ -6973,28 +6973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.7025686162463</v>
+        <v>769.9319549462691</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.7828524821093</v>
+        <v>1053.454867758068</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.8463837540334</v>
+        <v>952.91461371243</v>
       </c>
       <c r="AD2" t="n">
-        <v>711702.5686162462</v>
+        <v>769931.9549462692</v>
       </c>
       <c r="AE2" t="n">
-        <v>973782.8524821093</v>
+        <v>1053454.867758068</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.614654105712983e-06</v>
+        <v>3.104500424187705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>880846.3837540334</v>
+        <v>952914.61371243</v>
       </c>
     </row>
     <row r="3">
@@ -7079,28 +7079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.7900651660466</v>
+        <v>440.2882333754934</v>
       </c>
       <c r="AB3" t="n">
-        <v>538.800939951751</v>
+        <v>602.4217850503201</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.3785344546239</v>
+        <v>544.9274953894023</v>
       </c>
       <c r="AD3" t="n">
-        <v>393790.0651660467</v>
+        <v>440288.2333754934</v>
       </c>
       <c r="AE3" t="n">
-        <v>538800.939951751</v>
+        <v>602421.7850503201</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.268608519180193e-06</v>
+        <v>4.361860589950202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.995442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>487378.5344546239</v>
+        <v>544927.4953894024</v>
       </c>
     </row>
     <row r="4">
@@ -7185,28 +7185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.4269146393722</v>
+        <v>361.2792950913653</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.6317055486967</v>
+        <v>494.3182700616224</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.005802422664</v>
+        <v>447.1412281469897</v>
       </c>
       <c r="AD4" t="n">
-        <v>326426.9146393721</v>
+        <v>361279.2950913653</v>
       </c>
       <c r="AE4" t="n">
-        <v>446631.7055486967</v>
+        <v>494318.2700616224</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501446321380833e-06</v>
+        <v>4.809538549670023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.344401041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>404005.802422664</v>
+        <v>447141.2281469897</v>
       </c>
     </row>
     <row r="5">
@@ -7291,28 +7291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.5645054820647</v>
+        <v>356.4168859340578</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.9787428253162</v>
+        <v>487.665307338242</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.9877891241111</v>
+        <v>441.1232148484369</v>
       </c>
       <c r="AD5" t="n">
-        <v>321564.5054820647</v>
+        <v>356416.8859340578</v>
       </c>
       <c r="AE5" t="n">
-        <v>439978.7428253162</v>
+        <v>487665.307338242</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.522897040176537e-06</v>
+        <v>4.850781912793289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.290690104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>397987.7891241111</v>
+        <v>441123.2148484369</v>
       </c>
     </row>
   </sheetData>
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1030.962558072461</v>
+        <v>1103.519690708678</v>
       </c>
       <c r="AB2" t="n">
-        <v>1410.608454812784</v>
+        <v>1509.884324680434</v>
       </c>
       <c r="AC2" t="n">
-        <v>1275.981963686852</v>
+        <v>1365.783083868892</v>
       </c>
       <c r="AD2" t="n">
-        <v>1030962.558072461</v>
+        <v>1103519.690708678</v>
       </c>
       <c r="AE2" t="n">
-        <v>1410608.454812784</v>
+        <v>1509884.324680434</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.31531497263209e-06</v>
+        <v>2.450332032076166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.6455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1275981.963686852</v>
+        <v>1365783.083868892</v>
       </c>
     </row>
     <row r="3">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>509.4437830284283</v>
+        <v>557.8152047859065</v>
       </c>
       <c r="AB3" t="n">
-        <v>697.0434590129927</v>
+        <v>763.2273722580923</v>
       </c>
       <c r="AC3" t="n">
-        <v>630.518609591431</v>
+        <v>690.386023046124</v>
       </c>
       <c r="AD3" t="n">
-        <v>509443.7830284283</v>
+        <v>557815.2047859065</v>
       </c>
       <c r="AE3" t="n">
-        <v>697043.4590129927</v>
+        <v>763227.3722580923</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.016075940449673e-06</v>
+        <v>3.75579656490667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>630518.609591431</v>
+        <v>690386.023046124</v>
       </c>
     </row>
     <row r="4">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.3375585937208</v>
+        <v>452.6236394966274</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.232485782064</v>
+        <v>619.299631904966</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.4327538056936</v>
+        <v>560.1945442284476</v>
       </c>
       <c r="AD4" t="n">
-        <v>404337.5585937208</v>
+        <v>452623.6394966274</v>
       </c>
       <c r="AE4" t="n">
-        <v>553232.485782064</v>
+        <v>619299.631904966</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.286837329707152e-06</v>
+        <v>4.260204496810157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.697591145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>500432.7538056935</v>
+        <v>560194.5442284476</v>
       </c>
     </row>
     <row r="5">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.5872411447522</v>
+        <v>394.7805561168402</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.6348830868282</v>
+        <v>540.1561733680036</v>
       </c>
       <c r="AC5" t="n">
-        <v>443.8093784554038</v>
+        <v>488.6044262957113</v>
       </c>
       <c r="AD5" t="n">
-        <v>358587.2411447522</v>
+        <v>394780.5561168402</v>
       </c>
       <c r="AE5" t="n">
-        <v>490634.8830868282</v>
+        <v>540156.1733680036</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.426500138764538e-06</v>
+        <v>4.5203857171594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.311848958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>443809.3784554038</v>
+        <v>488604.4262957113</v>
       </c>
     </row>
     <row r="6">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>345.712833554834</v>
+        <v>381.906148526922</v>
       </c>
       <c r="AB6" t="n">
-        <v>473.0195506435251</v>
+        <v>522.5408409247004</v>
       </c>
       <c r="AC6" t="n">
-        <v>427.8752286172152</v>
+        <v>472.6702764575228</v>
       </c>
       <c r="AD6" t="n">
-        <v>345712.833554834</v>
+        <v>381906.148526922</v>
       </c>
       <c r="AE6" t="n">
-        <v>473019.5506435251</v>
+        <v>522540.8409247005</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.462356965079136e-06</v>
+        <v>4.587184264971437e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.220703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>427875.2286172152</v>
+        <v>472670.2764575228</v>
       </c>
     </row>
     <row r="7">
@@ -8118,28 +8118,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>346.8102943472614</v>
+        <v>383.0036093193495</v>
       </c>
       <c r="AB7" t="n">
-        <v>474.5211449162775</v>
+        <v>524.0424351974528</v>
       </c>
       <c r="AC7" t="n">
-        <v>429.2335128400769</v>
+        <v>474.0285606803844</v>
       </c>
       <c r="AD7" t="n">
-        <v>346810.2943472614</v>
+        <v>383003.6093193495</v>
       </c>
       <c r="AE7" t="n">
-        <v>474521.1449162775</v>
+        <v>524042.4351974529</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.463109864319338e-06</v>
+        <v>4.588586859151218e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.219075520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>429233.5128400769</v>
+        <v>474028.5606803844</v>
       </c>
     </row>
   </sheetData>
@@ -8415,28 +8415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.0697200068943</v>
+        <v>527.4664026173098</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.9573024453877</v>
+        <v>721.7028022363611</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.8764651593996</v>
+        <v>652.8244997071666</v>
       </c>
       <c r="AD2" t="n">
-        <v>483069.7200068943</v>
+        <v>527466.4026173098</v>
       </c>
       <c r="AE2" t="n">
-        <v>660957.3024453877</v>
+        <v>721702.8022363611</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.989673149150805e-06</v>
+        <v>3.988294564716397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.328450520833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>597876.4651593996</v>
+        <v>652824.4997071667</v>
       </c>
     </row>
     <row r="3">
@@ -8521,28 +8521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.0887825533503</v>
+        <v>334.3649816746569</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.962955389107</v>
+        <v>457.4929190691748</v>
       </c>
       <c r="AC3" t="n">
-        <v>372.6457891204092</v>
+        <v>413.8304369685566</v>
       </c>
       <c r="AD3" t="n">
-        <v>301088.7825533503</v>
+        <v>334364.9816746569</v>
       </c>
       <c r="AE3" t="n">
-        <v>411962.9553891071</v>
+        <v>457492.9190691748</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550878675612746e-06</v>
+        <v>5.113229558100737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.495768229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>372645.7891204092</v>
+        <v>413830.4369685565</v>
       </c>
     </row>
     <row r="4">
@@ -8627,28 +8627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.7071362525294</v>
+        <v>329.9833353738359</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.9677936157319</v>
+        <v>451.4977572957995</v>
       </c>
       <c r="AC4" t="n">
-        <v>367.2227971724225</v>
+        <v>408.4074450205698</v>
       </c>
       <c r="AD4" t="n">
-        <v>296707.1362525294</v>
+        <v>329983.3353738359</v>
       </c>
       <c r="AE4" t="n">
-        <v>405967.7936157319</v>
+        <v>451497.7572957996</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.571343536066093e-06</v>
+        <v>5.154251316749187e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>367222.7971724225</v>
+        <v>408407.4450205698</v>
       </c>
     </row>
   </sheetData>
@@ -8924,28 +8924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.1236750354249</v>
+        <v>381.5340788623209</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.0039732641119</v>
+        <v>522.0317587950383</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.7200852894509</v>
+        <v>472.2097804118141</v>
       </c>
       <c r="AD2" t="n">
-        <v>339123.6750354249</v>
+        <v>381534.0788623209</v>
       </c>
       <c r="AE2" t="n">
-        <v>464003.9732641119</v>
+        <v>522031.7587950383</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.35532973869601e-06</v>
+        <v>4.927497110767609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>419720.0852894509</v>
+        <v>472209.7804118141</v>
       </c>
     </row>
     <row r="3">
@@ -9030,28 +9030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.8260202028881</v>
+        <v>321.3216753758047</v>
       </c>
       <c r="AB3" t="n">
-        <v>381.5020617774474</v>
+        <v>439.646491961023</v>
       </c>
       <c r="AC3" t="n">
-        <v>345.0920404429136</v>
+        <v>397.6872478159891</v>
       </c>
       <c r="AD3" t="n">
-        <v>278826.0202028881</v>
+        <v>321321.6753758047</v>
       </c>
       <c r="AE3" t="n">
-        <v>381502.0617774474</v>
+        <v>439646.491961023</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.586641615501485e-06</v>
+        <v>5.4114160228076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>345092.0404429137</v>
+        <v>397687.2478159891</v>
       </c>
     </row>
   </sheetData>
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.0357507167443</v>
+        <v>310.8319958339774</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.1572684360491</v>
+        <v>425.2940496398943</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.5892765011155</v>
+        <v>384.7045824462096</v>
       </c>
       <c r="AD2" t="n">
-        <v>280035.7507167443</v>
+        <v>310831.9958339774</v>
       </c>
       <c r="AE2" t="n">
-        <v>383157.2684360491</v>
+        <v>425294.0496398943</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544765742752292e-06</v>
+        <v>5.531953692816056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.0166015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>346589.2765011155</v>
+        <v>384704.5824462096</v>
       </c>
     </row>
     <row r="3">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.842756976795</v>
+        <v>309.8189569337993</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.8425206010172</v>
+        <v>423.9079651245488</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.7361467050756</v>
+        <v>383.4507838916267</v>
       </c>
       <c r="AD3" t="n">
-        <v>268842.756976795</v>
+        <v>309818.9569337993</v>
       </c>
       <c r="AE3" t="n">
-        <v>367842.5206010172</v>
+        <v>423907.9651245488</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.562100210842608e-06</v>
+        <v>5.569636326291587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.969401041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>332736.1467050756</v>
+        <v>383450.7838916267</v>
       </c>
     </row>
   </sheetData>
@@ -16103,28 +16103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.4892941265665</v>
+        <v>316.4535521447082</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.0413383045181</v>
+        <v>432.9857109897974</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.6752877716113</v>
+        <v>391.6621624321925</v>
       </c>
       <c r="AD2" t="n">
-        <v>278489.2941265665</v>
+        <v>316453.5521447082</v>
       </c>
       <c r="AE2" t="n">
-        <v>381041.3383045181</v>
+        <v>432985.7109897974</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.323880207425565e-06</v>
+        <v>5.527411733359282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.2470703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>344675.2877716113</v>
+        <v>391662.1624321925</v>
       </c>
     </row>
   </sheetData>
@@ -16400,28 +16400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.0272248499133</v>
+        <v>707.472914155089</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.3959262168789</v>
+        <v>967.9956526491686</v>
       </c>
       <c r="AC2" t="n">
-        <v>804.5132272937617</v>
+        <v>875.6115061507627</v>
       </c>
       <c r="AD2" t="n">
-        <v>650027.2248499133</v>
+        <v>707472.9141550891</v>
       </c>
       <c r="AE2" t="n">
-        <v>889395.9262168789</v>
+        <v>967995.6526491686</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.70246398503028e-06</v>
+        <v>3.303764487102767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>804513.2272937617</v>
+        <v>875611.5061507627</v>
       </c>
     </row>
     <row r="3">
@@ -16506,28 +16506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.4675043799776</v>
+        <v>414.4751887300203</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.1534951317142</v>
+        <v>567.1032385752259</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.0377931402172</v>
+        <v>512.9797014199999</v>
       </c>
       <c r="AD3" t="n">
-        <v>368467.5043799776</v>
+        <v>414475.1887300203</v>
       </c>
       <c r="AE3" t="n">
-        <v>504153.4951317142</v>
+        <v>567103.2385752259</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340691026155988e-06</v>
+        <v>4.542293966563263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.847330729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>456037.7931402171</v>
+        <v>512979.7014199999</v>
       </c>
     </row>
     <row r="4">
@@ -16612,28 +16612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.3410902054828</v>
+        <v>349.8256077629229</v>
       </c>
       <c r="AB4" t="n">
-        <v>431.4635914861921</v>
+        <v>478.6468297578248</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.2853118777031</v>
+        <v>432.9654481107821</v>
       </c>
       <c r="AD4" t="n">
-        <v>315341.0902054828</v>
+        <v>349825.6077629229</v>
       </c>
       <c r="AE4" t="n">
-        <v>431463.5914861921</v>
+        <v>478646.8297578248</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.532129595504604e-06</v>
+        <v>4.913795479920954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.329752604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>390285.3118777031</v>
+        <v>432965.4481107821</v>
       </c>
     </row>
     <row r="5">
@@ -16718,28 +16718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.9363145399493</v>
+        <v>350.4208320973894</v>
       </c>
       <c r="AB5" t="n">
-        <v>432.2780036800535</v>
+        <v>479.4612419516862</v>
       </c>
       <c r="AC5" t="n">
-        <v>391.0219977148171</v>
+        <v>433.702133947896</v>
       </c>
       <c r="AD5" t="n">
-        <v>315936.3145399492</v>
+        <v>350420.8320973894</v>
       </c>
       <c r="AE5" t="n">
-        <v>432278.0036800535</v>
+        <v>479461.2419516862</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.535477800935597e-06</v>
+        <v>4.920292934372683e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.321614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>391021.9977148171</v>
+        <v>433702.133947896</v>
       </c>
     </row>
   </sheetData>
@@ -17015,28 +17015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>944.4805893124365</v>
+        <v>1004.41483234161</v>
       </c>
       <c r="AB2" t="n">
-        <v>1292.280009840129</v>
+        <v>1374.284685264834</v>
       </c>
       <c r="AC2" t="n">
-        <v>1168.946619427371</v>
+        <v>1243.124883723828</v>
       </c>
       <c r="AD2" t="n">
-        <v>944480.5893124364</v>
+        <v>1004414.83234161</v>
       </c>
       <c r="AE2" t="n">
-        <v>1292280.009840129</v>
+        <v>1374284.685264834</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387178248067542e-06</v>
+        <v>2.602890485250641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.13444010416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1168946.619427371</v>
+        <v>1243124.883723828</v>
       </c>
     </row>
     <row r="3">
@@ -17121,28 +17121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.1198896181266</v>
+        <v>531.8966202340324</v>
       </c>
       <c r="AB3" t="n">
-        <v>662.3941908376895</v>
+        <v>727.7644214269683</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.1762189402256</v>
+        <v>658.3076064697583</v>
       </c>
       <c r="AD3" t="n">
-        <v>484119.8896181267</v>
+        <v>531896.6202340324</v>
       </c>
       <c r="AE3" t="n">
-        <v>662394.1908376896</v>
+        <v>727764.4214269683</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071467641063509e-06</v>
+        <v>3.886885784822565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.4560546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>599176.2189402255</v>
+        <v>658307.6064697583</v>
       </c>
     </row>
     <row r="4">
@@ -17227,28 +17227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.7485621912982</v>
+        <v>432.6105441532245</v>
       </c>
       <c r="AB4" t="n">
-        <v>526.4299566987406</v>
+        <v>591.9168319406685</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.1882204804967</v>
+        <v>535.4251202607416</v>
       </c>
       <c r="AD4" t="n">
-        <v>384748.5621912982</v>
+        <v>432610.5441532244</v>
       </c>
       <c r="AE4" t="n">
-        <v>526429.9566987406</v>
+        <v>591916.8319406685</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.338882356007711e-06</v>
+        <v>4.388660677929441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.603190104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>476188.2204804967</v>
+        <v>535425.1202607416</v>
       </c>
     </row>
     <row r="5">
@@ -17333,28 +17333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.57464459773</v>
+        <v>377.4498853640828</v>
       </c>
       <c r="AB5" t="n">
-        <v>467.3574979484034</v>
+        <v>516.4435850688482</v>
       </c>
       <c r="AC5" t="n">
-        <v>422.753554284575</v>
+        <v>467.1549341430006</v>
       </c>
       <c r="AD5" t="n">
-        <v>341574.64459773</v>
+        <v>377449.8853640828</v>
       </c>
       <c r="AE5" t="n">
-        <v>467357.4979484034</v>
+        <v>516443.5850688482</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.472399923050468e-06</v>
+        <v>4.639192003196075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.246744791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>422753.554284575</v>
+        <v>467154.9341430006</v>
       </c>
     </row>
     <row r="6">
@@ -17439,28 +17439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.3622867480657</v>
+        <v>375.2375275144186</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.3304523361528</v>
+        <v>513.4165394565978</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.0154056570724</v>
+        <v>464.4167855154981</v>
       </c>
       <c r="AD6" t="n">
-        <v>339362.2867480657</v>
+        <v>375237.5275144186</v>
       </c>
       <c r="AE6" t="n">
-        <v>464330.4523361528</v>
+        <v>513416.5394565978</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.476765102925356e-06</v>
+        <v>4.647382792792567e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.2353515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>420015.4056570724</v>
+        <v>464416.7855154981</v>
       </c>
     </row>
   </sheetData>
@@ -17736,28 +17736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.9260722362302</v>
+        <v>339.7270370523971</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.162619136746</v>
+        <v>464.8295197941869</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.7807832051153</v>
+        <v>420.4668428173574</v>
       </c>
       <c r="AD2" t="n">
-        <v>293926.0722362302</v>
+        <v>339727.0370523972</v>
       </c>
       <c r="AE2" t="n">
-        <v>402162.619136746</v>
+        <v>464829.5197941869</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.052894153546799e-06</v>
+        <v>5.134132484844673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.66796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>363780.7832051152</v>
+        <v>420466.8428173573</v>
       </c>
     </row>
   </sheetData>
@@ -18033,28 +18033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.5005622905764</v>
+        <v>424.7563501879481</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.9858999429306</v>
+        <v>581.1703772547947</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.1682982641883</v>
+        <v>525.7042921273438</v>
       </c>
       <c r="AD2" t="n">
-        <v>381500.5622905764</v>
+        <v>424756.3501879481</v>
       </c>
       <c r="AE2" t="n">
-        <v>521985.8999429306</v>
+        <v>581170.3772547947</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.222653228608157e-06</v>
+        <v>4.577073026807936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.652994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>472168.2982641883</v>
+        <v>525704.2921273438</v>
       </c>
     </row>
     <row r="3">
@@ -18139,28 +18139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.3555036892322</v>
+        <v>316.8826854668325</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.0677450270581</v>
+        <v>433.5728701331539</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.9356655016846</v>
+        <v>392.19328393099</v>
       </c>
       <c r="AD3" t="n">
-        <v>284355.5036892322</v>
+        <v>316882.6854668325</v>
       </c>
       <c r="AE3" t="n">
-        <v>389067.7450270581</v>
+        <v>433572.8701331539</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583741624002015e-06</v>
+        <v>5.320656386361301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.583658854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>351935.6655016846</v>
+        <v>392193.28393099</v>
       </c>
     </row>
     <row r="4">
@@ -18245,28 +18245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>286.023298523313</v>
+        <v>318.5504803009134</v>
       </c>
       <c r="AB4" t="n">
-        <v>391.3496954969627</v>
+        <v>435.8548206030586</v>
       </c>
       <c r="AC4" t="n">
-        <v>353.9998298214792</v>
+        <v>394.2574482507845</v>
       </c>
       <c r="AD4" t="n">
-        <v>286023.298523313</v>
+        <v>318550.4803009134</v>
       </c>
       <c r="AE4" t="n">
-        <v>391349.6954969628</v>
+        <v>435854.8206030586</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.58353260032885e-06</v>
+        <v>5.320225947368794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.583658854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>353999.8298214792</v>
+        <v>394257.4482507845</v>
       </c>
     </row>
   </sheetData>
@@ -18542,28 +18542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>532.1093871039157</v>
+        <v>588.3305828932118</v>
       </c>
       <c r="AB2" t="n">
-        <v>728.0555384449544</v>
+        <v>804.9798588279765</v>
       </c>
       <c r="AC2" t="n">
-        <v>658.570939688133</v>
+        <v>728.1537108977612</v>
       </c>
       <c r="AD2" t="n">
-        <v>532109.3871039157</v>
+        <v>588330.5828932119</v>
       </c>
       <c r="AE2" t="n">
-        <v>728055.5384449544</v>
+        <v>804979.8588279765</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.88657119822507e-06</v>
+        <v>3.737644883670599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.681640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>658570.939688133</v>
+        <v>728153.7108977613</v>
       </c>
     </row>
     <row r="3">
@@ -18648,28 +18648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.1713835188641</v>
+        <v>353.0406463597564</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.7043677781754</v>
+        <v>483.045787403505</v>
       </c>
       <c r="AC3" t="n">
-        <v>395.0259158358553</v>
+        <v>436.9445754127343</v>
       </c>
       <c r="AD3" t="n">
-        <v>319171.3835188641</v>
+        <v>353040.6463597564</v>
       </c>
       <c r="AE3" t="n">
-        <v>436704.3677781754</v>
+        <v>483045.787403505</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.491513650821428e-06</v>
+        <v>4.93614725929744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.573893229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>395025.9158358553</v>
+        <v>436944.5754127343</v>
       </c>
     </row>
     <row r="4">
@@ -18754,28 +18754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.2684502925942</v>
+        <v>336.9671209328943</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.9452729500945</v>
+        <v>461.0532808005771</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.343478479085</v>
+        <v>417.051002773313</v>
       </c>
       <c r="AD4" t="n">
-        <v>303268.4502925942</v>
+        <v>336967.1209328943</v>
       </c>
       <c r="AE4" t="n">
-        <v>414945.2729500945</v>
+        <v>461053.2808005771</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.558025121407954e-06</v>
+        <v>5.067918728074776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.402994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>375343.478479085</v>
+        <v>417051.002773313</v>
       </c>
     </row>
   </sheetData>
